--- a/BTL_TKXDPM/chamcong_add.xlsx
+++ b/BTL_TKXDPM/chamcong_add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuanhduc/Downloads/TKXDPM/BTL_TKXDPM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34FB7D2-E91E-B048-919C-6CAD9079840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE81EF7E-274B-AD4E-96E6-20C65453B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,8 +768,8 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f ca="1">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I3</v>
+        <f ca="1">"I" &amp; RANDBETWEEN(1, 40)</f>
+        <v>I19</v>
       </c>
       <c r="B2" s="2">
         <v>45288</v>
@@ -786,8 +786,8 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f ca="1">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I11</v>
+        <f ca="1">"I" &amp; RANDBETWEEN(1, 40)</f>
+        <v>I26</v>
       </c>
       <c r="B3" s="2">
         <v>45284</v>
@@ -804,8 +804,8 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" ca="1" si="0">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I24</v>
+        <f t="shared" ref="A4:A67" ca="1" si="0">"I" &amp; RANDBETWEEN(1, 40)</f>
+        <v>I9</v>
       </c>
       <c r="B4" s="2">
         <v>45271</v>
@@ -823,7 +823,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I35</v>
+        <v>I29</v>
       </c>
       <c r="B5" s="2">
         <v>45271</v>
@@ -841,7 +841,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I32</v>
+        <v>I16</v>
       </c>
       <c r="B6" s="2">
         <v>45274</v>
@@ -859,7 +859,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I0</v>
+        <v>I7</v>
       </c>
       <c r="B7" s="2">
         <v>45264</v>
@@ -877,7 +877,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I28</v>
+        <v>I20</v>
       </c>
       <c r="B8" s="2">
         <v>45286</v>
@@ -895,7 +895,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I39</v>
+        <v>I16</v>
       </c>
       <c r="B9" s="2">
         <v>45270</v>
@@ -913,7 +913,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I39</v>
+        <v>I21</v>
       </c>
       <c r="B10" s="2">
         <v>45273</v>
@@ -931,7 +931,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I33</v>
+        <v>I2</v>
       </c>
       <c r="B11" s="2">
         <v>45262</v>
@@ -949,7 +949,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I36</v>
+        <v>I2</v>
       </c>
       <c r="B12" s="2">
         <v>45277</v>
@@ -967,7 +967,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I3</v>
+        <v>I20</v>
       </c>
       <c r="B13" s="2">
         <v>45270</v>
@@ -985,7 +985,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I4</v>
+        <v>I25</v>
       </c>
       <c r="B14" s="2">
         <v>45285</v>
@@ -1003,7 +1003,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I30</v>
+        <v>I7</v>
       </c>
       <c r="B15" s="2">
         <v>45271</v>
@@ -1021,7 +1021,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I3</v>
+        <v>I34</v>
       </c>
       <c r="B16" s="2">
         <v>45271</v>
@@ -1039,7 +1039,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I7</v>
+        <v>I3</v>
       </c>
       <c r="B17" s="2">
         <v>45260</v>
@@ -1057,7 +1057,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I20</v>
+        <v>I38</v>
       </c>
       <c r="B18" s="2">
         <v>45262</v>
@@ -1075,7 +1075,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I19</v>
+        <v>I37</v>
       </c>
       <c r="B19" s="2">
         <v>45264</v>
@@ -1093,7 +1093,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I9</v>
+        <v>I40</v>
       </c>
       <c r="B20" s="2">
         <v>45276</v>
@@ -1111,7 +1111,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I4</v>
+        <v>I37</v>
       </c>
       <c r="B21" s="2">
         <v>45284</v>
@@ -1129,7 +1129,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I11</v>
+        <v>I18</v>
       </c>
       <c r="B22" s="2">
         <v>45282</v>
@@ -1165,7 +1165,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I32</v>
+        <v>I10</v>
       </c>
       <c r="B24" s="2">
         <v>45262</v>
@@ -1183,7 +1183,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I4</v>
+        <v>I32</v>
       </c>
       <c r="B25" s="2">
         <v>45283</v>
@@ -1201,7 +1201,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I19</v>
+        <v>I20</v>
       </c>
       <c r="B26" s="2">
         <v>45287</v>
@@ -1219,7 +1219,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I1</v>
+        <v>I13</v>
       </c>
       <c r="B27" s="2">
         <v>45285</v>
@@ -1237,7 +1237,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I38</v>
+        <v>I32</v>
       </c>
       <c r="B28" s="2">
         <v>45284</v>
@@ -1255,7 +1255,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I37</v>
+        <v>I15</v>
       </c>
       <c r="B29" s="2">
         <v>45288</v>
@@ -1273,7 +1273,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I22</v>
+        <v>I14</v>
       </c>
       <c r="B30" s="2">
         <v>45263</v>
@@ -1291,7 +1291,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I32</v>
+        <v>I26</v>
       </c>
       <c r="B31" s="2">
         <v>45260</v>
@@ -1309,7 +1309,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I34</v>
+        <v>I26</v>
       </c>
       <c r="B32" s="2">
         <v>45277</v>
@@ -1327,7 +1327,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I40</v>
+        <v>I7</v>
       </c>
       <c r="B33" s="2">
         <v>45282</v>
@@ -1345,7 +1345,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I4</v>
+        <v>I20</v>
       </c>
       <c r="B34" s="2">
         <v>45277</v>
@@ -1363,7 +1363,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I1</v>
+        <v>I10</v>
       </c>
       <c r="B35" s="2">
         <v>45288</v>
@@ -1381,7 +1381,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I11</v>
+        <v>I20</v>
       </c>
       <c r="B36" s="2">
         <v>45273</v>
@@ -1399,7 +1399,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I10</v>
+        <v>I40</v>
       </c>
       <c r="B37" s="2">
         <v>45272</v>
@@ -1417,7 +1417,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I4</v>
+        <v>I5</v>
       </c>
       <c r="B38" s="2">
         <v>45281</v>
@@ -1435,7 +1435,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I23</v>
+        <v>I11</v>
       </c>
       <c r="B39" s="2">
         <v>45282</v>
@@ -1453,7 +1453,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I8</v>
+        <v>I5</v>
       </c>
       <c r="B40" s="2">
         <v>45264</v>
@@ -1471,7 +1471,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I20</v>
+        <v>I7</v>
       </c>
       <c r="B41" s="2">
         <v>45279</v>
@@ -1489,7 +1489,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I7</v>
+        <v>I40</v>
       </c>
       <c r="B42" s="2">
         <v>45268</v>
@@ -1507,7 +1507,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I0</v>
+        <v>I30</v>
       </c>
       <c r="B43" s="2">
         <v>45285</v>
@@ -1525,7 +1525,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I18</v>
+        <v>I1</v>
       </c>
       <c r="B44" s="2">
         <v>45285</v>
@@ -1543,7 +1543,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I7</v>
+        <v>I10</v>
       </c>
       <c r="B45" s="2">
         <v>45275</v>
@@ -1561,7 +1561,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I37</v>
+        <v>I10</v>
       </c>
       <c r="B46" s="2">
         <v>45288</v>
@@ -1579,7 +1579,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I29</v>
+        <v>I19</v>
       </c>
       <c r="B47" s="2">
         <v>45285</v>
@@ -1597,7 +1597,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I15</v>
+        <v>I34</v>
       </c>
       <c r="B48" s="2">
         <v>45267</v>
@@ -1615,7 +1615,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I23</v>
+        <v>I19</v>
       </c>
       <c r="B49" s="2">
         <v>45275</v>
@@ -1633,7 +1633,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I35</v>
+        <v>I33</v>
       </c>
       <c r="B50" s="2">
         <v>45285</v>
@@ -1651,7 +1651,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I34</v>
+        <v>I19</v>
       </c>
       <c r="B51" s="2">
         <v>45272</v>
@@ -1669,7 +1669,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I15</v>
+        <v>I24</v>
       </c>
       <c r="B52" s="2">
         <v>45265</v>
@@ -1687,7 +1687,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I15</v>
+        <v>I9</v>
       </c>
       <c r="B53" s="2">
         <v>45283</v>
@@ -1705,7 +1705,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I6</v>
+        <v>I32</v>
       </c>
       <c r="B54" s="2">
         <v>45287</v>
@@ -1723,7 +1723,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I12</v>
+        <v>I28</v>
       </c>
       <c r="B55" s="2">
         <v>45265</v>
@@ -1741,7 +1741,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I31</v>
+        <v>I10</v>
       </c>
       <c r="B56" s="2">
         <v>45272</v>
@@ -1759,7 +1759,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I2</v>
+        <v>I32</v>
       </c>
       <c r="B57" s="2">
         <v>45275</v>
@@ -1777,7 +1777,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I4</v>
+        <v>I26</v>
       </c>
       <c r="B58" s="2">
         <v>45266</v>
@@ -1795,7 +1795,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I12</v>
+        <v>I35</v>
       </c>
       <c r="B59" s="2">
         <v>45262</v>
@@ -1813,7 +1813,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I16</v>
+        <v>I34</v>
       </c>
       <c r="B60" s="2">
         <v>45277</v>
@@ -1831,7 +1831,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I32</v>
+        <v>I21</v>
       </c>
       <c r="B61" s="2">
         <v>45269</v>
@@ -1849,7 +1849,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I7</v>
+        <v>I38</v>
       </c>
       <c r="B62" s="2">
         <v>45286</v>
@@ -1867,7 +1867,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I2</v>
+        <v>I35</v>
       </c>
       <c r="B63" s="2">
         <v>45270</v>
@@ -1885,7 +1885,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I9</v>
+        <v>I7</v>
       </c>
       <c r="B64" s="2">
         <v>45268</v>
@@ -1903,7 +1903,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I12</v>
+        <v>I35</v>
       </c>
       <c r="B65" s="2">
         <v>45286</v>
@@ -1921,7 +1921,7 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I35</v>
+        <v>I5</v>
       </c>
       <c r="B66" s="2">
         <v>45269</v>
@@ -1939,7 +1939,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>I25</v>
+        <v>I38</v>
       </c>
       <c r="B67" s="2">
         <v>45285</v>
@@ -1956,8 +1956,8 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A101" ca="1" si="1">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I19</v>
+        <f t="shared" ref="A68:A101" ca="1" si="1">"I" &amp; RANDBETWEEN(1, 40)</f>
+        <v>I24</v>
       </c>
       <c r="B68" s="2">
         <v>45271</v>
@@ -1975,7 +1975,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I5</v>
+        <v>I32</v>
       </c>
       <c r="B69" s="2">
         <v>45280</v>
@@ -1993,7 +1993,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I31</v>
+        <v>I27</v>
       </c>
       <c r="B70" s="2">
         <v>45287</v>
@@ -2011,7 +2011,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I38</v>
+        <v>I22</v>
       </c>
       <c r="B71" s="2">
         <v>45279</v>
@@ -2029,7 +2029,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I29</v>
+        <v>I23</v>
       </c>
       <c r="B72" s="2">
         <v>45261</v>
@@ -2047,7 +2047,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I8</v>
+        <v>I34</v>
       </c>
       <c r="B73" s="2">
         <v>45288</v>
@@ -2065,7 +2065,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I19</v>
+        <v>I36</v>
       </c>
       <c r="B74" s="2">
         <v>45284</v>
@@ -2083,7 +2083,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I28</v>
+        <v>I29</v>
       </c>
       <c r="B75" s="2">
         <v>45269</v>
@@ -2101,7 +2101,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I12</v>
+        <v>I9</v>
       </c>
       <c r="B76" s="2">
         <v>45275</v>
@@ -2119,7 +2119,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I10</v>
+        <v>I28</v>
       </c>
       <c r="B77" s="2">
         <v>45286</v>
@@ -2137,7 +2137,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I30</v>
+        <v>I6</v>
       </c>
       <c r="B78" s="2">
         <v>45283</v>
@@ -2155,7 +2155,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I21</v>
+        <v>I22</v>
       </c>
       <c r="B79" s="2">
         <v>45279</v>
@@ -2173,7 +2173,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I32</v>
+        <v>I22</v>
       </c>
       <c r="B80" s="2">
         <v>45270</v>
@@ -2191,7 +2191,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I36</v>
+        <v>I3</v>
       </c>
       <c r="B81" s="2">
         <v>45276</v>
@@ -2209,7 +2209,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I18</v>
+        <v>I11</v>
       </c>
       <c r="B82" s="2">
         <v>45277</v>
@@ -2227,7 +2227,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I39</v>
+        <v>I22</v>
       </c>
       <c r="B83" s="2">
         <v>45278</v>
@@ -2245,7 +2245,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I0</v>
+        <v>I36</v>
       </c>
       <c r="B84" s="2">
         <v>45286</v>
@@ -2263,7 +2263,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I3</v>
+        <v>I1</v>
       </c>
       <c r="B85" s="2">
         <v>45285</v>
@@ -2281,7 +2281,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I15</v>
+        <v>I35</v>
       </c>
       <c r="B86" s="2">
         <v>45288</v>
@@ -2299,7 +2299,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I16</v>
+        <v>I15</v>
       </c>
       <c r="B87" s="2">
         <v>45262</v>
@@ -2335,7 +2335,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I35</v>
+        <v>I16</v>
       </c>
       <c r="B89" s="2">
         <v>45280</v>
@@ -2353,7 +2353,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I29</v>
+        <v>I20</v>
       </c>
       <c r="B90" s="2">
         <v>45268</v>
@@ -2371,7 +2371,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I10</v>
+        <v>I22</v>
       </c>
       <c r="B91" s="2">
         <v>45278</v>
@@ -2389,7 +2389,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I9</v>
+        <v>I24</v>
       </c>
       <c r="B92" s="2">
         <v>45285</v>
@@ -2407,7 +2407,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I19</v>
+        <v>I36</v>
       </c>
       <c r="B93" s="2">
         <v>45268</v>
@@ -2425,7 +2425,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I14</v>
+        <v>I21</v>
       </c>
       <c r="B94" s="2">
         <v>45276</v>
@@ -2461,7 +2461,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I9</v>
+        <v>I3</v>
       </c>
       <c r="B96" s="2">
         <v>45281</v>
@@ -2479,7 +2479,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I2</v>
+        <v>I8</v>
       </c>
       <c r="B97" s="2">
         <v>45262</v>
@@ -2497,7 +2497,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I38</v>
+        <v>I18</v>
       </c>
       <c r="B98" s="2">
         <v>45280</v>
@@ -2515,7 +2515,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I22</v>
+        <v>I32</v>
       </c>
       <c r="B99" s="2">
         <v>45271</v>
@@ -2533,7 +2533,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I24</v>
+        <v>I23</v>
       </c>
       <c r="B100" s="2">
         <v>45274</v>
@@ -2551,7 +2551,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>I29</v>
+        <v>I16</v>
       </c>
       <c r="B101" s="2">
         <v>45266</v>
